--- a/ТЗ MobiDev.xlsx
+++ b/ТЗ MobiDev.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Getcourse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694A0521-4FA1-48E0-9494-236D50861FEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4E8A34-19D2-4D98-9D0C-BBF59F3257A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{CA5BD808-25DB-4204-ACA9-8B8FFDC6AC28}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{CA5BD808-25DB-4204-ACA9-8B8FFDC6AC28}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirments" sheetId="1" r:id="rId1"/>
-    <sheet name="A few Test - cases" sheetId="4" r:id="rId2"/>
+    <sheet name="Chek-list" sheetId="2" r:id="rId2"/>
+    <sheet name="A few Test - cases" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Chek-list'!$A$1:$D$40</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +30,88 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="130">
+  <si>
+    <t>1) header;</t>
+  </si>
+  <si>
+    <t>2) graphs and tables;</t>
+  </si>
+  <si>
+    <t>3) footer.</t>
+  </si>
+  <si>
+    <t>The user should “Sign up” in the system if this is his first visit to the site.</t>
+  </si>
+  <si>
+    <t>The site https://qatesttask.mobi-dev.com is suited for desktop and mobile usage.</t>
+  </si>
+  <si>
+    <t>The site has an intuitive and easy to use interface that allows use it instantly.</t>
+  </si>
+  <si>
+    <t>The user can add an avatar in any format with any size and user’s info.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>On “Sign in” page user can log in in the system if he is already authorized or use</t>
+    </r>
+  </si>
+  <si>
+    <t>If the user forgot the password he/she can use the button “Forgot password” for password recovery and set a new one in the form.</t>
+  </si>
+  <si>
+    <t>After the login user can see the main page which consists of 3 sections:</t>
+  </si>
+  <si>
+    <t>Income and expenses graphs are built depending on the type of currency and number of categories and show to the user the visual statistics with values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The user can see the Incomes table in the left and Expenses table in the right below the graphs.</t>
+  </si>
+  <si>
+    <t>Each table has 5 basic categories by default and contains unique names of categories and the selected type of currency.</t>
+  </si>
+  <si>
+    <t>Basic income categories: Credit Card, Bank Account, Cash, Other.</t>
+  </si>
+  <si>
+    <t>Total value depending on the type of currency and is placed under the tables in a separate block for user convenience.</t>
+  </si>
+  <si>
+    <t>The user has the opportunity to add new categories to each table and see them on the main page, edit or remove any of them from the tables.</t>
+  </si>
+  <si>
+    <t>Popup is displayed if the user wants to add a new category where can enter data for incomes or expenses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> User can create new cost record using categories from the Incomes and Expenses tables.</t>
+  </si>
+  <si>
+    <t>On the main page in the user’s profile the user can change any data and avatar.</t>
+  </si>
+  <si>
+    <t>After finishing the work with Money Care user can log out and all data and changes will be saved in the database on the server</t>
+  </si>
+  <si>
+    <t>When user will login in the next time it will be display the previous state of the system.</t>
+  </si>
   <si>
     <t>№</t>
   </si>
@@ -34,6 +119,209 @@
     <t>Requirments</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>authorization: md-user / MD@QAPass1</t>
+  </si>
+  <si>
+    <t>authorization: md-user / MD@QAPass2</t>
+  </si>
+  <si>
+    <t>Open the site  https://qatesttask.mobi-dev.com by using mobile Samsung A51</t>
+  </si>
+  <si>
+    <t>Open the site  https://qatesttask.mobi-dev.com by laptop HP CompaqyPresario CQ57</t>
+  </si>
+  <si>
+    <t>“Sign up” in the system without filing in any fields</t>
+  </si>
+  <si>
+    <t>“Sign up” in the system, enter 55555 in the field "Name"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User can enter numerals </t>
+  </si>
+  <si>
+    <t>“Sign up” in the system with name 55555 without filing 2 other fields</t>
+  </si>
+  <si>
+    <t>User can enter numerals in these fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The field "Phone number" can be empty </t>
+  </si>
+  <si>
+    <t>Add an avatar in PDF format with size 160 KB</t>
+  </si>
+  <si>
+    <t>The format can not be "any"</t>
+  </si>
+  <si>
+    <t>Add an avatar in JPG format with size 657 KB</t>
+  </si>
+  <si>
+    <t>The phone number can not contain 1 numeral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open the site  https://qatesttask.mobi-dev.com by using mobile Samsung A51 and open the main page, check if the Incomes table in the left and Expenses table in the right below the graphs </t>
+  </si>
+  <si>
+    <t>The fields Incomes and Expenses are one under the other</t>
+  </si>
+  <si>
+    <t>The fields can not be empty</t>
+  </si>
+  <si>
+    <t>Click the button "Exit"</t>
+  </si>
+  <si>
+    <t>The phone number can not contain 5 numerals, there is no field “Password”</t>
+  </si>
+  <si>
+    <t>Sign in with already authorized profile : Name - 1, Password - 1</t>
+  </si>
+  <si>
+    <t>The current password is not safety</t>
+  </si>
+  <si>
+    <t>Use the button “Forgot password”</t>
+  </si>
+  <si>
+    <t>In the field "E-mail" enter invalid data "ertyuio"</t>
+  </si>
+  <si>
+    <t>In the field "E-mail" enter invalid data "ertyuio@ghj.com"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Not Found </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>The requested URL /reset-pass/ was not found on this server.</t>
+    </r>
+  </si>
+  <si>
+    <t>In the field "E-mail" enter valid data "leskapavlyuk@gmail.com"</t>
+  </si>
+  <si>
+    <t>The main page consists of 3 sections: header, graphs and tables, footer</t>
+  </si>
+  <si>
+    <t>Income and expenses graphs are built depending on the type of currency and number of categories and show to the user the visual statistics with values</t>
+  </si>
+  <si>
+    <t>Each table has 5 basic categories by default and contains unique names of categories and the selected type of currency</t>
+  </si>
+  <si>
+    <t>The Incomes table in the left and Expenses table in the right below the graphs</t>
+  </si>
+  <si>
+    <t>There is a mistake in requests, there must be "Expenses", not "Income"</t>
+  </si>
+  <si>
+    <t>The Total value is not correct, when two types of currency are used</t>
+  </si>
+  <si>
+    <t>Add new categories to each table and see them on the main page</t>
+  </si>
+  <si>
+    <t>Check basic expenses categories: Rent, Food, Transport, Vocation, Other</t>
+  </si>
+  <si>
+    <t>Check basic income categories: Rent, Food, Transport, Vocation, Other</t>
+  </si>
+  <si>
+    <t>Check basic income categories: Credit Card, Bank Account, Cash, Other</t>
+  </si>
+  <si>
+    <t>Total value is depended on the type of currency and is placed under the tables in a separate block for user convenience</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Edit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">categories </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>to the incomes tables</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Edit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">categories </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>to the expenses tables</t>
+    </r>
+  </si>
+  <si>
+    <t>Remove categories from the expenses tables</t>
+  </si>
+  <si>
+    <t>Remove categories from the incomes  tables</t>
+  </si>
+  <si>
+    <t>Popup is displayed if the user wants to add a new category where can enter data for incomes or expenses</t>
+  </si>
+  <si>
+    <t>Сreate new cost record using categories from the Incomes tables, don't fill the category</t>
+  </si>
+  <si>
+    <t>Сreate new cost record using categories from the Expenses tables, don't fill the category</t>
+  </si>
+  <si>
+    <t>Log out and sign in, all data and changes must be displayed from the previous state of the system.</t>
+  </si>
+  <si>
     <t>TypeFunctional</t>
   </si>
   <si>
@@ -61,21 +349,60 @@
     <t>Expected Result</t>
   </si>
   <si>
+    <t>There are no graphic changes, all image sizes are reduced to the size of the phone screen</t>
+  </si>
+  <si>
+    <t>The site is opened and it works</t>
+  </si>
+  <si>
+    <t>Opened site https://qatesttask.mobi-dev.com in the browser Google Chrome</t>
+  </si>
+  <si>
+    <t>C1: The site https://qatesttask.mobi-dev.com is suited for desktop and mobile usage</t>
+  </si>
+  <si>
     <t>Two working devices</t>
   </si>
   <si>
+    <t>Click the button "Sign up"</t>
+  </si>
+  <si>
+    <t>The page with fields to fill in</t>
+  </si>
+  <si>
     <t>Leave the fields empty</t>
   </si>
   <si>
     <t>Error, "Please fill out this field"</t>
   </si>
   <si>
+    <t>Leave the field "Name" empty and fill in other two fields</t>
+  </si>
+  <si>
+    <t>Fill in the field "Name" and leave two other fields empty</t>
+  </si>
+  <si>
     <t>Enter 55555 in the field "Name"</t>
   </si>
   <si>
     <t>Error, "This field can contain only  letters"</t>
   </si>
   <si>
+    <t xml:space="preserve">Leave the field "Phone number" empty </t>
+  </si>
+  <si>
+    <t>The field is empty and user can sign up</t>
+  </si>
+  <si>
+    <t>Enter 55555 in the field "Phone number"</t>
+  </si>
+  <si>
+    <t>Error, "This field can contain only  10 numerals"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2: Sign up to the system in the site https://qatesttask.mobi-dev.com </t>
+  </si>
+  <si>
     <t>For this test-case we can use test design technique decision-making table</t>
   </si>
   <si>
@@ -88,18 +415,27 @@
     <t>Valid password</t>
   </si>
   <si>
+    <t>Valid phone number</t>
+  </si>
+  <si>
     <t>Not valid name</t>
   </si>
   <si>
     <t>Not valid password</t>
   </si>
   <si>
+    <t>Not valid phone number</t>
+  </si>
+  <si>
     <t>Action</t>
   </si>
   <si>
     <t>Successfully registration</t>
   </si>
   <si>
+    <t>Unsuccessfully registration</t>
+  </si>
+  <si>
     <t>Press "Sign in"</t>
   </si>
   <si>
@@ -115,62 +451,149 @@
     <t>For this test-case we can also use test design technique State-transition diagram</t>
   </si>
   <si>
+    <t xml:space="preserve">The names of the fields are not visible in NEW INCOMES CATEGORY </t>
+  </si>
+  <si>
+    <t>“Sign up” in the system with name 55555 and the same Last name 55555</t>
+  </si>
+  <si>
+    <t>“Sign up” in the system with name 55555 and the same Last name 55555 and empty field "Phone number"</t>
+  </si>
+  <si>
+    <t>“Sign up” in the system with name 55555 and the same Last name 55555, and the same "Phone number" 55555</t>
+  </si>
+  <si>
+    <t>Change profile fields: Name - 1, Last name - 1, Phone number - 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change profile fields: Name -  , Last name - , Phone number - </t>
+  </si>
+  <si>
+    <t>Sign in with already authorized profile: Name - 1, Last name - 1, Phone number - 1</t>
+  </si>
+  <si>
+    <t>Instead of the field "Password" there is the field "Last name" when user is signing up.</t>
+  </si>
+  <si>
+    <t>Enter 55555 in the field "Last name"</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
     <t>For this test-case we can also use test design technique use-case diagram</t>
   </si>
   <si>
-    <t>Let’s Get in Touch' form contain validation for mandatory fields: 'Name' / 'Your email' / 'Message' / checkbox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1: Log in a Webmail </t>
-  </si>
-  <si>
-    <t>Click the button "Webmail"</t>
-  </si>
-  <si>
-    <t>User can see the page with fields to fill in: user name and password</t>
-  </si>
-  <si>
-    <t>Leave the field "Name" empty and fill in "Password"</t>
-  </si>
-  <si>
-    <t>Fill in the field "Name" and leave empty "Password"</t>
-  </si>
-  <si>
-    <t>Enter 55555 in the field "Password"</t>
-  </si>
-  <si>
-    <t>Error, "This password is not safety"</t>
-  </si>
-  <si>
-    <t>Enter valid data in the field "Name" and invalid data in the field "Password"</t>
-  </si>
-  <si>
-    <t>Enter invalid data in the field "Name" and valid data in the field "Password"</t>
-  </si>
-  <si>
-    <t>Error, "Failed login"</t>
-  </si>
-  <si>
-    <t>Error, "Failed login "</t>
-  </si>
-  <si>
-    <t>Failed registration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2: Log in a Webmail </t>
+    <t>“Sign in” in the system without “Sign up” before</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Basic income </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>categories</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Rent, Food, Transport, Vocation, Other.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF202020"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -263,13 +686,31 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -284,7 +725,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -349,6 +790,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -357,93 +848,222 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гіперпосилання" xfId="1" builtinId="8"/>
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -461,17 +1081,1006 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2714625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>30382</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4552950</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>513628</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E36B688B-D088-489B-A867-3BB346053C9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9391650" y="1630582"/>
+          <a:ext cx="1838325" cy="483246"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2749924</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28935</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4121524</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>665750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1207763C-2483-4897-88FF-6D2075C919AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11759453" y="2976082"/>
+          <a:ext cx="1371600" cy="636815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>188259</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2455209</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>31317</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{200EF866-31B7-4BF1-AE7E-4AB801DD63EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8783171" y="2017060"/>
+          <a:ext cx="2266950" cy="401110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2419349</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6779558</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>336176</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF5691BC-4917-4717-B880-369784A138EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9098055" y="5103159"/>
+          <a:ext cx="4360209" cy="298076"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>The</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>remark</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="uk-UA" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>is</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> in English, but the site is tanslated into Ukrainian</a:t>
+          </a:r>
+          <a:endParaRPr lang="uk-UA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>141111</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Рисунок 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69BC7B91-43DE-4663-AF81-408233924A5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14163675" y="504825"/>
+          <a:ext cx="1981200" cy="1637096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4905375</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Пряма зі стрілкою 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EA7EF14-0F5A-465A-A689-224C3137A605}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11582400" y="1066800"/>
+          <a:ext cx="2590800" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>135869</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>421634</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>96091</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Рисунок 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4463E77E-4429-40B0-B0F7-3BBBA1DC3477}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect l="38811" t="17917" r="38700" b="45214"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15689634" y="4370294"/>
+          <a:ext cx="2101118" cy="1920409"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4749511</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>89698</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Пряма зі стрілкою 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2956ACC3-328C-4177-AB9F-415AB39CB4A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="13344423" y="5827059"/>
+          <a:ext cx="2478283" cy="1692139"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4704687</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>134521</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>332712</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>134521</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Пряма зі стрілкою 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD23B386-AD72-41FD-9D99-79F570C84021}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11383393" y="7967433"/>
+          <a:ext cx="2586878" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>156881</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>425823</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>194778</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Рисунок 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D00ADA77-8238-4CE7-BF4F-1F85E18B2243}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect l="38935" t="17312" r="37895" b="41935"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15867530" y="6555440"/>
+          <a:ext cx="1927411" cy="1905917"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>274925</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Рисунок 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD15345D-20B4-42B9-9F4A-38D12F143376}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15643412" y="8527676"/>
+          <a:ext cx="2605749" cy="1008530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4559011</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>145727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Пряма зі стрілкою 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{719EE80C-0297-469A-B7CD-7A227A480E93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13153923" y="8180345"/>
+          <a:ext cx="2567930" cy="392155"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>175329</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Рисунок 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{120A7243-26E0-4904-84D4-F939E0F949A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15659101" y="9353550"/>
+          <a:ext cx="1781174" cy="1661229"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4495800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>34738</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Пряма зі стрілкою 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9F66C8F-DF48-4F5E-9594-0E151EFB5277}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13087350" y="9344025"/>
+          <a:ext cx="2501713" cy="201146"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4267201</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="TextBox 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{513D70C1-257C-40B1-AB80-430031853388}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8591551" y="9239250"/>
+          <a:ext cx="4267200" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>The</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>remark</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="uk-UA" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>is</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> in English, but the site is tanslated into Ukrainian</a:t>
+          </a:r>
+          <a:endParaRPr lang="uk-UA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4267200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="TextBox 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DF46E04-EBEC-4568-BB1B-BAF380E321E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8591550" y="9439275"/>
+          <a:ext cx="4267200" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>The</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>remark</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="uk-UA" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>is</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> in English, but the site is tanslated into Ukrainian</a:t>
+          </a:r>
+          <a:endParaRPr lang="uk-UA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1415143</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>114859</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>10085</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>181534</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -529,13 +2138,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>738592</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>51955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>813955</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>114859</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -584,13 +2193,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -633,7 +2242,7 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>Open website </a:t>
@@ -648,13 +2257,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>128588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -703,13 +2312,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -767,13 +2376,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -814,15 +2423,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>450272</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>7795</xdr:rowOff>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>259772</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>141145</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -837,8 +2446,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10598727" y="10866295"/>
-          <a:ext cx="1627909" cy="895350"/>
+          <a:off x="5915024" y="7086601"/>
+          <a:ext cx="1133475" cy="895350"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -879,13 +2488,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -954,13 +2563,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1025,13 +2634,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1100,13 +2709,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>723899</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>504263</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1164,13 +2773,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>157163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>157163</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1217,13 +2826,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1264,13 +2873,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1319,13 +2928,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>365693</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>188271</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1374,13 +2983,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>546846</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1429,13 +3038,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>257735</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>304802</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1482,13 +3091,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>175372</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>11205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>518272</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>77880</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1557,13 +3166,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>336176</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>135030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>175372</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>135030</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1604,13 +3213,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>354666</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>33617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>92449</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>100292</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1676,13 +3285,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>515471</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>157442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>354666</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>157442</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1723,13 +3332,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>78441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>481853</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>56029</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1776,13 +3385,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>437029</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>56029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1829,13 +3438,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>560530</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>573592</xdr:colOff>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>87083</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2169,10 +3778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{823D7C04-CC7C-4334-BD5E-3C05F2F4EAE3}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C13" sqref="C12:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2182,18 +3791,180 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>30</v>
+      <c r="B2" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="72" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2203,952 +3974,1710 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4DC240-E77A-4536-894D-176978CC3C06}">
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView topLeftCell="C13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="117.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="104.42578125" style="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="21"/>
+    </row>
+    <row r="22" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="22"/>
+    </row>
+    <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="12"/>
+    </row>
+    <row r="27" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="15"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" s="7"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D40" xr:uid="{5C992477-84BE-4700-BFF3-F1290B4A7DE7}"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00AC86D-A3B8-4F21-ACCC-C00DC41D36A3}">
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.140625" customWidth="1"/>
-    <col min="2" max="2" width="65.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="45"/>
+      <c r="B7" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+    </row>
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="48">
+        <v>1</v>
+      </c>
+      <c r="B8" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="C8" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+    </row>
+    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="48">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B9" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="68" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="42"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="42"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="45"/>
+      <c r="B16" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="48">
+        <v>1</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="48">
+        <v>2</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="48">
         <v>3</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="B19" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+    </row>
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="48">
         <v>4</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="B20" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="53">
         <v>5</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="B21" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="55">
         <v>6</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+      <c r="B22" s="56" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="58">
         <v>7</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+      <c r="B23" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+    </row>
+    <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="58">
         <v>8</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="B24" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+    </row>
+    <row r="26" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+    </row>
+    <row r="27" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="60"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+    </row>
+    <row r="28" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+    </row>
+    <row r="29" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" s="62">
         <v>1</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="C29" s="62">
         <v>2</v>
       </c>
-      <c r="B9" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="D29" s="62">
         <v>3</v>
       </c>
-      <c r="B10" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="E29" s="62">
         <v>4</v>
       </c>
-      <c r="B11" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="F29" s="62">
         <v>5</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="G29" s="62">
         <v>6</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="H29" s="62">
         <v>7</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+      <c r="I29" s="62">
         <v>8</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-    </row>
-    <row r="20" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="16">
+      <c r="J29" s="30"/>
+    </row>
+    <row r="30" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="64">
         <v>1</v>
       </c>
-      <c r="C20" s="16">
-        <v>2</v>
-      </c>
-      <c r="D20" s="16">
-        <v>3</v>
-      </c>
-      <c r="E20" s="16">
-        <v>4</v>
-      </c>
-      <c r="F20" s="16">
-        <v>5</v>
-      </c>
-      <c r="G20" s="16">
-        <v>6</v>
-      </c>
-      <c r="H20" s="16">
-        <v>7</v>
-      </c>
-      <c r="I20" s="16">
-        <v>8</v>
-      </c>
-      <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="18">
+      <c r="C30" s="64">
         <v>1</v>
       </c>
-      <c r="C21" s="18">
+      <c r="D30" s="64">
         <v>1</v>
       </c>
-      <c r="D21" s="18">
+      <c r="E30" s="64">
         <v>1</v>
       </c>
-      <c r="E21" s="18">
+      <c r="F30" s="64">
+        <v>0</v>
+      </c>
+      <c r="G30" s="64">
+        <v>0</v>
+      </c>
+      <c r="H30" s="64">
+        <v>0</v>
+      </c>
+      <c r="I30" s="64">
+        <v>0</v>
+      </c>
+      <c r="J30" s="30"/>
+    </row>
+    <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="63" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="64">
         <v>1</v>
       </c>
-      <c r="F21" s="18">
+      <c r="C31" s="64">
         <v>0</v>
       </c>
-      <c r="G21" s="18">
+      <c r="D31" s="64">
+        <v>1</v>
+      </c>
+      <c r="E31" s="64">
         <v>0</v>
       </c>
-      <c r="H21" s="18">
+      <c r="F31" s="64">
         <v>0</v>
       </c>
-      <c r="I21" s="18">
+      <c r="G31" s="64">
+        <v>1</v>
+      </c>
+      <c r="H31" s="64">
         <v>0</v>
       </c>
-      <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="18">
+      <c r="I31" s="64">
         <v>1</v>
       </c>
-      <c r="C22" s="18">
+      <c r="J31" s="30"/>
+    </row>
+    <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="64">
+        <v>1</v>
+      </c>
+      <c r="C32" s="64">
         <v>0</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D32" s="64">
+        <v>0</v>
+      </c>
+      <c r="E32" s="64">
         <v>1</v>
       </c>
-      <c r="E22" s="18">
+      <c r="F32" s="64">
         <v>0</v>
       </c>
-      <c r="F22" s="18">
+      <c r="G32" s="64">
+        <v>1</v>
+      </c>
+      <c r="H32" s="64">
+        <v>1</v>
+      </c>
+      <c r="I32" s="64">
         <v>0</v>
       </c>
-      <c r="G22" s="18">
+      <c r="J32" s="30"/>
+    </row>
+    <row r="33" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="64">
+        <v>0</v>
+      </c>
+      <c r="C33" s="64">
+        <v>0</v>
+      </c>
+      <c r="D33" s="64">
+        <v>0</v>
+      </c>
+      <c r="E33" s="64">
+        <v>0</v>
+      </c>
+      <c r="F33" s="64">
         <v>1</v>
       </c>
-      <c r="H22" s="18">
+      <c r="G33" s="64">
+        <v>1</v>
+      </c>
+      <c r="H33" s="64">
+        <v>1</v>
+      </c>
+      <c r="I33" s="64">
+        <v>1</v>
+      </c>
+      <c r="J33" s="30"/>
+    </row>
+    <row r="34" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="64">
         <v>0</v>
       </c>
-      <c r="I22" s="18">
+      <c r="C34" s="64">
         <v>1</v>
       </c>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="18">
+      <c r="D34" s="64">
         <v>0</v>
       </c>
-      <c r="C23" s="18">
+      <c r="E34" s="64">
+        <v>1</v>
+      </c>
+      <c r="F34" s="64">
+        <v>1</v>
+      </c>
+      <c r="G34" s="64">
         <v>0</v>
       </c>
-      <c r="D23" s="18">
+      <c r="H34" s="64">
+        <v>1</v>
+      </c>
+      <c r="I34" s="64">
         <v>0</v>
       </c>
-      <c r="E23" s="18">
+      <c r="J34" s="30"/>
+    </row>
+    <row r="35" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="64">
         <v>0</v>
       </c>
-      <c r="F23" s="18">
+      <c r="C35" s="64">
+        <v>0</v>
+      </c>
+      <c r="D35" s="64">
         <v>1</v>
       </c>
-      <c r="G23" s="18">
+      <c r="E35" s="64">
+        <v>0</v>
+      </c>
+      <c r="F35" s="64">
         <v>1</v>
       </c>
-      <c r="H23" s="18">
+      <c r="G35" s="64">
+        <v>0</v>
+      </c>
+      <c r="H35" s="64">
+        <v>0</v>
+      </c>
+      <c r="I35" s="64">
         <v>1</v>
       </c>
-      <c r="I23" s="18">
+      <c r="J35" s="30"/>
+    </row>
+    <row r="36" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="30"/>
+    </row>
+    <row r="37" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="64">
         <v>1</v>
       </c>
-      <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="18">
+      <c r="C37" s="64">
         <v>0</v>
       </c>
-      <c r="C24" s="18">
+      <c r="D37" s="64">
+        <v>0</v>
+      </c>
+      <c r="E37" s="64">
+        <v>0</v>
+      </c>
+      <c r="F37" s="64">
+        <v>0</v>
+      </c>
+      <c r="G37" s="64">
+        <v>0</v>
+      </c>
+      <c r="H37" s="64">
+        <v>0</v>
+      </c>
+      <c r="I37" s="64">
+        <v>0</v>
+      </c>
+      <c r="J37" s="30"/>
+    </row>
+    <row r="38" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="63" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="64">
+        <v>0</v>
+      </c>
+      <c r="C38" s="64">
         <v>1</v>
       </c>
-      <c r="D24" s="18">
-        <v>0</v>
-      </c>
-      <c r="E24" s="18">
+      <c r="D38" s="64">
         <v>1</v>
       </c>
-      <c r="F24" s="18">
+      <c r="E38" s="64">
         <v>1</v>
       </c>
-      <c r="G24" s="18">
-        <v>0</v>
-      </c>
-      <c r="H24" s="18">
+      <c r="F38" s="64">
         <v>1</v>
       </c>
-      <c r="I24" s="18">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="18">
+      <c r="G38" s="64">
         <v>1</v>
       </c>
-      <c r="C26" s="18">
-        <v>0</v>
-      </c>
-      <c r="D26" s="18">
-        <v>0</v>
-      </c>
-      <c r="E26" s="18">
-        <v>0</v>
-      </c>
-      <c r="F26" s="18">
-        <v>0</v>
-      </c>
-      <c r="G26" s="18">
-        <v>0</v>
-      </c>
-      <c r="H26" s="18">
-        <v>0</v>
-      </c>
-      <c r="I26" s="18">
-        <v>0</v>
-      </c>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="18">
-        <v>0</v>
-      </c>
-      <c r="C27" s="18">
+      <c r="H38" s="64">
         <v>1</v>
       </c>
-      <c r="D27" s="18">
+      <c r="I38" s="64">
         <v>1</v>
       </c>
-      <c r="E27" s="18">
-        <v>1</v>
-      </c>
-      <c r="F27" s="18">
-        <v>1</v>
-      </c>
-      <c r="G27" s="18">
-        <v>1</v>
-      </c>
-      <c r="H27" s="18">
-        <v>1</v>
-      </c>
-      <c r="I27" s="18">
-        <v>1</v>
-      </c>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="1:15" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J38" s="5"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
+      <c r="J38" s="30"/>
+    </row>
+    <row r="39" spans="1:15" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="65"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
+      <c r="A40" s="66"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+    </row>
+    <row r="41" spans="1:15" ht="22.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="71" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" s="71"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H43" s="6"/>
-      <c r="I43" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J43" s="6"/>
-      <c r="K43" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L43" s="3"/>
-      <c r="M43" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="F44" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
+      <c r="A45" s="31"/>
+      <c r="B45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
+      <c r="A46" s="31"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
+      <c r="A49" s="31"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="H49" s="31"/>
+      <c r="I49" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="J49" s="33"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="53" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A53" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
+      <c r="A50" s="31"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="31"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="31"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="31"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="H54" s="34"/>
+      <c r="I54" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="J54" s="34"/>
+      <c r="K54" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="L54" s="31"/>
+      <c r="M54" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="N54" s="31"/>
+      <c r="O54" s="31"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="31"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="F55" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
+      <c r="O55" s="31"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="31"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="31"/>
+      <c r="O56" s="31"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="31"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="31"/>
+      <c r="O57" s="31"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="31"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="31"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
+      <c r="O58" s="31"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
+      <c r="O59" s="31"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="31"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="31"/>
+      <c r="O60" s="31"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="31"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="31"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="31"/>
+      <c r="O61" s="31"/>
+    </row>
+    <row r="64" spans="1:15" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A64" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" s="67"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="67"/>
+      <c r="H64" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A53:H53"/>
+  <mergeCells count="6">
+    <mergeCell ref="A64:H64"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A41:H41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
